--- a/realme/April/Others/Advane Entry  Retail Wise Imei List.xlsx
+++ b/realme/April/Others/Advane Entry  Retail Wise Imei List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88017\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\realme\April\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -448,9 +448,6 @@
     <xf numFmtId="1" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -459,6 +456,9 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -751,7 +751,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,17 +776,17 @@
       <c r="B2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1188,20 +1188,20 @@
       <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="18"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="17"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
